--- a/convert_uint8_t_to_float32/combine.xlsx
+++ b/convert_uint8_t_to_float32/combine.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,33 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\i2011430\Documents\C\benchmark\convert_uint8_t_to_float32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3977E0D-379B-458D-B8C5-37E51FE8FCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F04ED5-E697-41A3-ADC7-9202DBF721CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combine" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">combine!$A$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">combine!$A$2:$A$257</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">combine!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">combine!$B$2:$B$257</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">combine!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">combine!$B$2:$B$257</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">combine!$B$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">combine!$B$2:$B$257</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">combine!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">combine!$C$2:$C$257</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">combine!$D$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">combine!$D$2:$D$257</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>avx</t>
   </si>
@@ -47,11 +46,31 @@
   <si>
     <t>lut</t>
   </si>
+  <si>
+    <t>avx</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>avx2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>general</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>lut</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>O3</t>
+    <phoneticPr fontId="18"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -700,2815 +719,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-                <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>AVX</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{A4588DF5-B8E2-4275-8839-C1D56C6D30A0}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>avx</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-                <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>AVX2</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{58AD71C8-5847-4585-81BE-0133B87D6D8C}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
-              <cx:v>avx2</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-                <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>General</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{84AE11B0-4D49-487F-B200-FF7641568BEF}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>general</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr" rtl="0">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-                <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-                <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-              </a:rPr>
-              <a:t>LUT</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-              <a:ea typeface="游ゴシック" panose="020B0400000000000000" pitchFamily="50" charset="-128"/>
-            </a:endParaRPr>
-          </a:p>
-        </cx:rich>
-      </cx:tx>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{2B2C0A4D-2319-4243-AAE5-AC73F9B98C45}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
-              <cx:v>lut</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="グラフ 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{165C7C1C-9EC3-2008-6FC4-00CA5799A0C6}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2898775" y="53975"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>この図は、お使いのバージョンの Excel では利用できません。
-この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="グラフ 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FCBC565-B0FA-3483-1CB2-6A820B16C9C4}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7578725" y="53975"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>この図は、お使いのバージョンの Excel では利用できません。
-この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>263525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>212725</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="グラフ 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45131649-100A-8467-B152-DBC8DDE64FCC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2905125" y="2879725"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>この図は、お使いのバージョンの Excel では利用できません。
-この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>307975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="5" name="グラフ 4">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A117F63A-E943-01A4-B65A-3081079513D1}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="7572375" y="2892425"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="ja-JP" altLang="en-US" sz="1100"/>
-                <a:t>この図は、お使いのバージョンの Excel では利用できません。
-この図形を編集するか、このブックを異なるファイル形式に保存すると、グラフが恒久的に壊れます。</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3825,16 +1035,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D257"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D257" sqref="D1:D257"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3847,8 +1057,26 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>5.7265999999999997E-2</v>
       </c>
@@ -3861,8 +1089,31 @@
       <c r="D2">
         <v>0.118729</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2">
+        <v>8.9457999999999996E-2</v>
+      </c>
+      <c r="F2">
+        <f>SUM(A:A)</f>
+        <v>15.961530000000012</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:J2" si="0">SUM(B:B)</f>
+        <v>11.445868999999995</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>33.197028999999993</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>32.56851300000001</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>13.584349999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>5.6899999999999999E-2</v>
       </c>
@@ -3875,8 +1126,11 @@
       <c r="D3">
         <v>0.11867900000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3">
+        <v>5.0584999999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>5.6564000000000003E-2</v>
       </c>
@@ -3889,8 +1143,11 @@
       <c r="D4">
         <v>0.12703700000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4">
+        <v>5.6231000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>5.5557000000000002E-2</v>
       </c>
@@ -3903,8 +1160,11 @@
       <c r="D5">
         <v>0.13871</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5">
+        <v>5.0027000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5.6755E-2</v>
       </c>
@@ -3917,8 +1177,11 @@
       <c r="D6">
         <v>0.13106200000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6">
+        <v>5.1004000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6.6109000000000001E-2</v>
       </c>
@@ -3931,8 +1194,11 @@
       <c r="D7">
         <v>0.126358</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7">
+        <v>5.7206E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>6.3393000000000005E-2</v>
       </c>
@@ -3945,8 +1211,11 @@
       <c r="D8">
         <v>0.122311</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8">
+        <v>5.7005E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>6.5925999999999998E-2</v>
       </c>
@@ -3959,8 +1228,11 @@
       <c r="D9">
         <v>0.121601</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9">
+        <v>5.4635000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>6.0905000000000001E-2</v>
       </c>
@@ -3973,8 +1245,11 @@
       <c r="D10">
         <v>0.117661</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10">
+        <v>6.7371E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>6.0608000000000002E-2</v>
       </c>
@@ -3987,8 +1262,11 @@
       <c r="D11">
         <v>0.124031</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11">
+        <v>5.9651999999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>6.1577E-2</v>
       </c>
@@ -4001,8 +1279,11 @@
       <c r="D12">
         <v>0.121777</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12">
+        <v>5.7854000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>6.0332999999999998E-2</v>
       </c>
@@ -4015,8 +1296,11 @@
       <c r="D13">
         <v>0.12936400000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13">
+        <v>5.6536000000000003E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>6.2370000000000002E-2</v>
       </c>
@@ -4029,8 +1313,11 @@
       <c r="D14">
         <v>0.12955900000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14">
+        <v>5.8846999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>6.0303000000000002E-2</v>
       </c>
@@ -4043,8 +1330,11 @@
       <c r="D15">
         <v>0.127918</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15">
+        <v>5.3261999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>5.9532000000000002E-2</v>
       </c>
@@ -4057,8 +1347,11 @@
       <c r="D16">
         <v>0.12537400000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16">
+        <v>5.3025000000000003E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>5.9264999999999998E-2</v>
       </c>
@@ -4071,8 +1364,11 @@
       <c r="D17">
         <v>0.12998599999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17">
+        <v>5.5222E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>5.9188999999999999E-2</v>
       </c>
@@ -4085,8 +1381,11 @@
       <c r="D18">
         <v>0.124374</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18">
+        <v>5.3870000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>5.7541000000000002E-2</v>
       </c>
@@ -4099,8 +1398,11 @@
       <c r="D19">
         <v>0.121258</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19">
+        <v>5.7391999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>5.7617000000000002E-2</v>
       </c>
@@ -4113,8 +1415,11 @@
       <c r="D20">
         <v>0.123474</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20">
+        <v>5.7826000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>6.2179999999999999E-2</v>
       </c>
@@ -4127,8 +1432,11 @@
       <c r="D21">
         <v>0.12542</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21">
+        <v>5.0222999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>6.4987000000000003E-2</v>
       </c>
@@ -4141,8 +1449,11 @@
       <c r="D22">
         <v>0.14441699999999999</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22">
+        <v>4.5572000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>6.8297999999999998E-2</v>
       </c>
@@ -4155,8 +1466,11 @@
       <c r="D23">
         <v>0.132103</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23">
+        <v>5.0310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>6.2302000000000003E-2</v>
       </c>
@@ -4169,8 +1483,11 @@
       <c r="D24">
         <v>0.12717400000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24">
+        <v>4.9246999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>6.2737000000000001E-2</v>
       </c>
@@ -4183,8 +1500,11 @@
       <c r="D25">
         <v>0.127079</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25">
+        <v>5.2581000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>6.4063999999999996E-2</v>
       </c>
@@ -4197,8 +1517,11 @@
       <c r="D26">
         <v>0.125221</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26">
+        <v>5.0942000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>6.8237000000000006E-2</v>
       </c>
@@ -4211,8 +1534,11 @@
       <c r="D27">
         <v>0.12449300000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27">
+        <v>5.1823000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>7.1899000000000005E-2</v>
       </c>
@@ -4225,8 +1551,11 @@
       <c r="D28">
         <v>0.12203600000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28">
+        <v>5.0414E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>6.4293000000000003E-2</v>
       </c>
@@ -4239,8 +1568,11 @@
       <c r="D29">
         <v>0.12701000000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29">
+        <v>5.0922000000000002E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>6.0928000000000003E-2</v>
       </c>
@@ -4253,8 +1585,11 @@
       <c r="D30">
         <v>0.13015699999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30">
+        <v>4.8904000000000003E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>6.0492999999999998E-2</v>
       </c>
@@ -4267,8 +1602,11 @@
       <c r="D31">
         <v>0.14596600000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31">
+        <v>5.3363000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>6.2659999999999993E-2</v>
       </c>
@@ -4281,8 +1619,11 @@
       <c r="D32">
         <v>0.14254800000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32">
+        <v>6.2047999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>5.8777000000000003E-2</v>
       </c>
@@ -4295,8 +1636,11 @@
       <c r="D33">
         <v>0.131882</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33">
+        <v>6.0165999999999997E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>5.8685000000000001E-2</v>
       </c>
@@ -4309,8 +1653,11 @@
       <c r="D34">
         <v>0.12856699999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34">
+        <v>5.8030999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>5.7632000000000003E-2</v>
       </c>
@@ -4323,8 +1670,11 @@
       <c r="D35">
         <v>0.12557199999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35">
+        <v>5.7687000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>5.7671E-2</v>
       </c>
@@ -4337,8 +1687,11 @@
       <c r="D36">
         <v>0.12942500000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36">
+        <v>5.7930000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>5.6999000000000001E-2</v>
       </c>
@@ -4351,8 +1704,11 @@
       <c r="D37">
         <v>0.127884</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37">
+        <v>5.0964000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>5.7617000000000002E-2</v>
       </c>
@@ -4365,8 +1721,11 @@
       <c r="D38">
         <v>0.130165</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38">
+        <v>5.2160999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>5.6945999999999997E-2</v>
       </c>
@@ -4379,8 +1738,11 @@
       <c r="D39">
         <v>0.13464400000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39">
+        <v>5.0619999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>5.6259000000000003E-2</v>
       </c>
@@ -4393,8 +1755,11 @@
       <c r="D40">
         <v>0.12864300000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40">
+        <v>4.9374000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>5.6847000000000002E-2</v>
       </c>
@@ -4407,8 +1772,11 @@
       <c r="D41">
         <v>0.12593499999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41">
+        <v>4.8441999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>5.6968999999999999E-2</v>
       </c>
@@ -4421,8 +1789,11 @@
       <c r="D42">
         <v>0.124046</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42">
+        <v>4.7759000000000003E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>6.4362000000000003E-2</v>
       </c>
@@ -4435,8 +1806,11 @@
       <c r="D43">
         <v>0.12085</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43">
+        <v>5.2253000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>6.3560000000000005E-2</v>
       </c>
@@ -4449,8 +1823,11 @@
       <c r="D44">
         <v>0.120605</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E44">
+        <v>5.6762E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>6.4300999999999997E-2</v>
       </c>
@@ -4463,8 +1840,11 @@
       <c r="D45">
         <v>0.12043</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E45">
+        <v>5.8941E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>6.1011999999999997E-2</v>
       </c>
@@ -4477,8 +1857,11 @@
       <c r="D46">
         <v>0.11894200000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E46">
+        <v>5.2749999999999998E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>6.2507999999999994E-2</v>
       </c>
@@ -4491,8 +1874,11 @@
       <c r="D47">
         <v>0.12565599999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E47">
+        <v>4.9197999999999999E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>6.3347000000000001E-2</v>
       </c>
@@ -4505,8 +1891,11 @@
       <c r="D48">
         <v>0.145847</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E48">
+        <v>4.8462999999999999E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>6.1142000000000002E-2</v>
       </c>
@@ -4519,8 +1908,11 @@
       <c r="D49">
         <v>0.12959300000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49">
+        <v>4.8037000000000003E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>5.8196999999999999E-2</v>
       </c>
@@ -4533,8 +1925,11 @@
       <c r="D50">
         <v>0.125114</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E50">
+        <v>4.9320999999999997E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>5.8860999999999997E-2</v>
       </c>
@@ -4547,8 +1942,11 @@
       <c r="D51">
         <v>0.12132999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E51">
+        <v>5.2706999999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>5.7838000000000001E-2</v>
       </c>
@@ -4561,8 +1959,11 @@
       <c r="D52">
         <v>0.122379</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52">
+        <v>5.8033000000000001E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>5.7831E-2</v>
       </c>
@@ -4575,8 +1976,11 @@
       <c r="D53">
         <v>0.130444</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E53">
+        <v>5.5037000000000003E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>5.6807999999999997E-2</v>
       </c>
@@ -4589,8 +1993,11 @@
       <c r="D54">
         <v>0.12094100000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E54">
+        <v>5.4198999999999997E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>5.6663999999999999E-2</v>
       </c>
@@ -4603,8 +2010,11 @@
       <c r="D55">
         <v>0.123985</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E55">
+        <v>5.5116999999999999E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>5.6952999999999997E-2</v>
       </c>
@@ -4617,8 +2027,11 @@
       <c r="D56">
         <v>0.137543</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E56">
+        <v>5.5030999999999997E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>5.6800999999999997E-2</v>
       </c>
@@ -4631,8 +2044,11 @@
       <c r="D57">
         <v>0.12897500000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E57">
+        <v>5.4962999999999998E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>5.7228000000000001E-2</v>
       </c>
@@ -4645,8 +2061,11 @@
       <c r="D58">
         <v>0.12506900000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E58">
+        <v>5.2978999999999998E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>5.7883999999999998E-2</v>
       </c>
@@ -4659,8 +2078,11 @@
       <c r="D59">
         <v>0.123039</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E59">
+        <v>4.8386999999999999E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>6.4362000000000003E-2</v>
       </c>
@@ -4673,8 +2095,11 @@
       <c r="D60">
         <v>0.121113</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E60">
+        <v>4.9163999999999999E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>6.0714999999999998E-2</v>
       </c>
@@ -4687,8 +2112,11 @@
       <c r="D61">
         <v>0.12048</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E61">
+        <v>5.0077000000000003E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>6.4903000000000002E-2</v>
       </c>
@@ -4701,8 +2129,11 @@
       <c r="D62">
         <v>0.11843099999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E62">
+        <v>4.9540000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>6.1211000000000002E-2</v>
       </c>
@@ -4715,8 +2146,11 @@
       <c r="D63">
         <v>0.11783200000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E63">
+        <v>5.0811000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>6.1957999999999999E-2</v>
       </c>
@@ -4729,8 +2163,11 @@
       <c r="D64">
         <v>0.12814300000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E64">
+        <v>4.9119000000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>6.25E-2</v>
       </c>
@@ -4743,8 +2180,11 @@
       <c r="D65">
         <v>0.142017</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65">
+        <v>5.0333000000000003E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>6.2247999999999998E-2</v>
       </c>
@@ -4757,8 +2197,11 @@
       <c r="D66">
         <v>0.14535100000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E66">
+        <v>4.7676000000000003E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>5.9776000000000003E-2</v>
       </c>
@@ -4771,8 +2214,11 @@
       <c r="D67">
         <v>0.13639499999999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E67">
+        <v>5.5712999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>5.9082000000000003E-2</v>
       </c>
@@ -4785,8 +2231,11 @@
       <c r="D68">
         <v>0.13125999999999999</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E68">
+        <v>4.9701000000000002E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>5.8380000000000001E-2</v>
       </c>
@@ -4799,8 +2248,11 @@
       <c r="D69">
         <v>0.12987099999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E69">
+        <v>5.1478000000000003E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>5.7152000000000001E-2</v>
       </c>
@@ -4813,8 +2265,11 @@
       <c r="D70">
         <v>0.127163</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E70">
+        <v>5.0252999999999999E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>5.7785000000000003E-2</v>
       </c>
@@ -4827,8 +2282,11 @@
       <c r="D71">
         <v>0.12645000000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E71">
+        <v>4.7948999999999999E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>5.7189999999999998E-2</v>
       </c>
@@ -4841,8 +2299,11 @@
       <c r="D72">
         <v>0.127666</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E72">
+        <v>4.8501000000000002E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>6.8061999999999998E-2</v>
       </c>
@@ -4855,8 +2316,11 @@
       <c r="D73">
         <v>0.13519300000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E73">
+        <v>4.9866000000000001E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>6.4010999999999998E-2</v>
       </c>
@@ -4869,8 +2333,11 @@
       <c r="D74">
         <v>0.12742600000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74">
+        <v>4.9905999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>5.8907000000000001E-2</v>
       </c>
@@ -4883,8 +2350,11 @@
       <c r="D75">
         <v>0.12579299999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75">
+        <v>5.8528999999999998E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>5.8968E-2</v>
       </c>
@@ -4897,8 +2367,11 @@
       <c r="D76">
         <v>0.123085</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76">
+        <v>5.9424999999999999E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>5.8464000000000002E-2</v>
       </c>
@@ -4911,8 +2384,11 @@
       <c r="D77">
         <v>0.122692</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E77">
+        <v>6.1190000000000001E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>5.8434E-2</v>
       </c>
@@ -4925,8 +2401,11 @@
       <c r="D78">
         <v>0.121349</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E78">
+        <v>5.5231000000000002E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>6.3293000000000002E-2</v>
       </c>
@@ -4939,8 +2418,11 @@
       <c r="D79">
         <v>0.119766</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E79">
+        <v>6.0135000000000001E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>6.6100999999999993E-2</v>
       </c>
@@ -4953,8 +2435,11 @@
       <c r="D80">
         <v>0.121185</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E80">
+        <v>5.3365999999999997E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>7.0876999999999996E-2</v>
       </c>
@@ -4967,8 +2452,11 @@
       <c r="D81">
         <v>0.12626599999999999</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81">
+        <v>5.1895999999999998E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>6.4879999999999993E-2</v>
       </c>
@@ -4981,8 +2469,11 @@
       <c r="D82">
         <v>0.13511699999999999</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E82">
+        <v>4.9604000000000002E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>6.2599000000000002E-2</v>
       </c>
@@ -4995,8 +2486,11 @@
       <c r="D83">
         <v>0.12992100000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E83">
+        <v>4.8548000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>6.0135000000000001E-2</v>
       </c>
@@ -5009,8 +2503,11 @@
       <c r="D84">
         <v>0.125778</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E84">
+        <v>5.3841E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>6.0295000000000001E-2</v>
       </c>
@@ -5023,8 +2520,11 @@
       <c r="D85">
         <v>0.12881500000000001</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E85">
+        <v>5.9345000000000002E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>5.8730999999999998E-2</v>
       </c>
@@ -5037,8 +2537,11 @@
       <c r="D86">
         <v>0.12509200000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E86">
+        <v>6.9985000000000006E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>5.9333999999999998E-2</v>
       </c>
@@ -5051,8 +2554,11 @@
       <c r="D87">
         <v>0.12198299999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E87">
+        <v>5.1839000000000003E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>5.7228000000000001E-2</v>
       </c>
@@ -5065,8 +2571,11 @@
       <c r="D88">
         <v>0.121155</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E88">
+        <v>5.2077999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>5.7876999999999998E-2</v>
       </c>
@@ -5079,8 +2588,11 @@
       <c r="D89">
         <v>0.122639</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E89">
+        <v>5.0464000000000002E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>5.7815999999999999E-2</v>
       </c>
@@ -5093,8 +2605,11 @@
       <c r="D90">
         <v>0.14354700000000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E90">
+        <v>4.8508000000000003E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>5.7449E-2</v>
       </c>
@@ -5107,8 +2622,11 @@
       <c r="D91">
         <v>0.126522</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E91">
+        <v>4.9320000000000003E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>5.6992000000000001E-2</v>
       </c>
@@ -5121,8 +2639,11 @@
       <c r="D92">
         <v>0.124916</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E92">
+        <v>4.9322999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>5.7945000000000003E-2</v>
       </c>
@@ -5135,8 +2656,11 @@
       <c r="D93">
         <v>0.12489699999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E93">
+        <v>4.9952000000000003E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>5.6755E-2</v>
       </c>
@@ -5149,8 +2673,11 @@
       <c r="D94">
         <v>0.12267699999999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E94">
+        <v>5.1277000000000003E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>5.8777000000000003E-2</v>
       </c>
@@ -5163,8 +2690,11 @@
       <c r="D95">
         <v>0.12410400000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E95">
+        <v>5.9554999999999997E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>6.2546000000000004E-2</v>
       </c>
@@ -5177,8 +2707,11 @@
       <c r="D96">
         <v>0.12313499999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E96">
+        <v>5.4795999999999997E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>6.7420999999999995E-2</v>
       </c>
@@ -5191,8 +2724,11 @@
       <c r="D97">
         <v>0.12536600000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E97">
+        <v>5.6552999999999999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>6.1668000000000001E-2</v>
       </c>
@@ -5205,8 +2741,11 @@
       <c r="D98">
         <v>0.12736500000000001</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98">
+        <v>5.5569E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>6.9587999999999997E-2</v>
       </c>
@@ -5219,8 +2758,11 @@
       <c r="D99">
         <v>0.13718</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E99">
+        <v>5.1299999999999998E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>6.5299999999999997E-2</v>
       </c>
@@ -5233,8 +2775,11 @@
       <c r="D100">
         <v>0.12898999999999999</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E100">
+        <v>5.3855E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>6.5178E-2</v>
       </c>
@@ -5247,8 +2792,11 @@
       <c r="D101">
         <v>0.13136300000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E101">
+        <v>5.2474E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>6.0546999999999997E-2</v>
       </c>
@@ -5261,8 +2809,11 @@
       <c r="D102">
         <v>0.125885</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E102">
+        <v>5.9178000000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>6.0143000000000002E-2</v>
       </c>
@@ -5275,8 +2826,11 @@
       <c r="D103">
         <v>0.12246700000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E103">
+        <v>5.2156000000000001E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>5.8425999999999999E-2</v>
       </c>
@@ -5289,8 +2843,11 @@
       <c r="D104">
         <v>0.12067799999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E104">
+        <v>5.2486999999999999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>5.9958999999999998E-2</v>
       </c>
@@ -5303,8 +2860,11 @@
       <c r="D105">
         <v>0.120667</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E105">
+        <v>5.3198000000000002E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>5.8791999999999997E-2</v>
       </c>
@@ -5317,8 +2877,11 @@
       <c r="D106">
         <v>0.118557</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E106">
+        <v>5.4945000000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>5.7342999999999998E-2</v>
       </c>
@@ -5331,8 +2894,11 @@
       <c r="D107">
         <v>0.13217499999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E107">
+        <v>5.4459E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>5.7258999999999997E-2</v>
       </c>
@@ -5345,8 +2911,11 @@
       <c r="D108">
         <v>0.126137</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E108">
+        <v>5.2405E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
         <v>5.7418999999999998E-2</v>
       </c>
@@ -5359,8 +2928,11 @@
       <c r="D109">
         <v>0.123249</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E109">
+        <v>5.2165999999999997E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>5.7563999999999997E-2</v>
       </c>
@@ -5373,8 +2945,11 @@
       <c r="D110">
         <v>0.12670500000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E110">
+        <v>5.0569999999999997E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>5.7280999999999999E-2</v>
       </c>
@@ -5387,8 +2962,11 @@
       <c r="D111">
         <v>0.12676200000000001</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E111">
+        <v>4.9653000000000003E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>5.8036999999999998E-2</v>
       </c>
@@ -5401,8 +2979,11 @@
       <c r="D112">
         <v>0.12431</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E112">
+        <v>5.3439E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>5.7197999999999999E-2</v>
       </c>
@@ -5415,8 +2996,11 @@
       <c r="D113">
         <v>0.123123</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E113">
+        <v>5.1603999999999997E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>5.7693000000000001E-2</v>
       </c>
@@ -5429,8 +3013,11 @@
       <c r="D114">
         <v>0.120571</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E114">
+        <v>5.1222999999999998E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>6.0035999999999999E-2</v>
       </c>
@@ -5443,8 +3030,11 @@
       <c r="D115">
         <v>0.12920000000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E115">
+        <v>4.6966000000000001E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>7.0702000000000001E-2</v>
       </c>
@@ -5457,8 +3047,11 @@
       <c r="D116">
         <v>0.131966</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E116">
+        <v>4.6733999999999998E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>7.3653999999999997E-2</v>
       </c>
@@ -5471,8 +3064,11 @@
       <c r="D117">
         <v>0.13474700000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E117">
+        <v>4.8572999999999998E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
         <v>6.4919000000000004E-2</v>
       </c>
@@ -5485,8 +3081,11 @@
       <c r="D118">
         <v>0.134327</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E118">
+        <v>4.9521000000000003E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>6.1302000000000002E-2</v>
       </c>
@@ -5499,8 +3098,11 @@
       <c r="D119">
         <v>0.127052</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E119">
+        <v>5.9313999999999999E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>5.9853000000000003E-2</v>
       </c>
@@ -5513,8 +3115,11 @@
       <c r="D120">
         <v>0.123985</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E120">
+        <v>5.8678000000000001E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>5.8983000000000001E-2</v>
       </c>
@@ -5527,8 +3132,11 @@
       <c r="D121">
         <v>0.121658</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E121">
+        <v>6.1079000000000001E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>5.9646999999999999E-2</v>
       </c>
@@ -5541,8 +3149,11 @@
       <c r="D122">
         <v>0.120972</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E122">
+        <v>5.7775E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>5.7854000000000003E-2</v>
       </c>
@@ -5555,8 +3166,11 @@
       <c r="D123">
         <v>0.119091</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E123">
+        <v>5.7376999999999997E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>5.7678E-2</v>
       </c>
@@ -5569,8 +3183,11 @@
       <c r="D124">
         <v>0.13506299999999999</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E124">
+        <v>4.8805000000000001E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>5.8562999999999997E-2</v>
       </c>
@@ -5583,8 +3200,11 @@
       <c r="D125">
         <v>0.13342300000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E125">
+        <v>5.5462999999999998E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>5.8205E-2</v>
       </c>
@@ -5597,8 +3217,11 @@
       <c r="D126">
         <v>0.12554599999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E126">
+        <v>5.7433999999999999E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
         <v>5.8624000000000002E-2</v>
       </c>
@@ -5611,8 +3234,11 @@
       <c r="D127">
         <v>0.122089</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E127">
+        <v>5.2998000000000003E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>5.7815999999999999E-2</v>
       </c>
@@ -5625,8 +3251,11 @@
       <c r="D128">
         <v>0.12459199999999999</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E128">
+        <v>4.8316999999999999E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>6.0692000000000003E-2</v>
       </c>
@@ -5639,8 +3268,11 @@
       <c r="D129">
         <v>0.122002</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E129">
+        <v>4.6172999999999999E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>5.8959999999999999E-2</v>
       </c>
@@ -5653,8 +3285,11 @@
       <c r="D130">
         <v>0.12103700000000001</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E130">
+        <v>4.8855999999999997E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>5.9914000000000002E-2</v>
       </c>
@@ -5667,8 +3302,11 @@
       <c r="D131">
         <v>0.120934</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E131">
+        <v>4.8466000000000002E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>6.2858999999999998E-2</v>
       </c>
@@ -5681,8 +3319,11 @@
       <c r="D132">
         <v>0.13586799999999999</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E132">
+        <v>4.9111000000000002E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>6.7214999999999997E-2</v>
       </c>
@@ -5695,8 +3336,11 @@
       <c r="D133">
         <v>0.127029</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E133">
+        <v>5.0619999999999998E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>6.1836000000000002E-2</v>
       </c>
@@ -5709,8 +3353,11 @@
       <c r="D134">
         <v>0.14441699999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E134">
+        <v>4.7684999999999998E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>6.8015999999999993E-2</v>
       </c>
@@ -5723,8 +3370,11 @@
       <c r="D135">
         <v>0.13262199999999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E135">
+        <v>4.9116E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136">
         <v>6.1745000000000001E-2</v>
       </c>
@@ -5737,8 +3387,11 @@
       <c r="D136">
         <v>0.12998599999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E136">
+        <v>4.9299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>6.3537999999999997E-2</v>
       </c>
@@ -5751,8 +3404,11 @@
       <c r="D137">
         <v>0.12425600000000001</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E137">
+        <v>5.0554000000000002E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>6.1164999999999997E-2</v>
       </c>
@@ -5765,8 +3421,11 @@
       <c r="D138">
         <v>0.121143</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E138">
+        <v>5.1362999999999999E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>6.0509E-2</v>
       </c>
@@ -5779,8 +3438,11 @@
       <c r="D139">
         <v>0.121029</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E139">
+        <v>5.6333000000000001E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>5.9180999999999997E-2</v>
       </c>
@@ -5793,8 +3455,11 @@
       <c r="D140">
         <v>0.11904099999999999</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E140">
+        <v>5.901E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>6.0409999999999998E-2</v>
       </c>
@@ -5807,8 +3472,11 @@
       <c r="D141">
         <v>0.132553</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E141">
+        <v>5.2830000000000002E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>5.9166000000000003E-2</v>
       </c>
@@ -5821,8 +3489,11 @@
       <c r="D142">
         <v>0.13001299999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E142">
+        <v>5.3850000000000002E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>5.9753000000000001E-2</v>
       </c>
@@ -5835,8 +3506,11 @@
       <c r="D143">
         <v>0.12994</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E143">
+        <v>5.5107999999999997E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>5.7747E-2</v>
       </c>
@@ -5849,8 +3523,11 @@
       <c r="D144">
         <v>0.124081</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E144">
+        <v>5.2608000000000002E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145">
         <v>5.6763000000000001E-2</v>
       </c>
@@ -5863,8 +3540,11 @@
       <c r="D145">
         <v>0.123528</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E145">
+        <v>5.3474000000000001E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146">
         <v>5.7334999999999997E-2</v>
       </c>
@@ -5877,8 +3557,11 @@
       <c r="D146">
         <v>0.12399300000000001</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E146">
+        <v>5.3248999999999998E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147">
         <v>5.8838000000000001E-2</v>
       </c>
@@ -5891,8 +3574,11 @@
       <c r="D147">
         <v>0.12188</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E147">
+        <v>5.6779000000000003E-2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148">
         <v>6.0287E-2</v>
       </c>
@@ -5905,8 +3591,11 @@
       <c r="D148">
         <v>0.121216</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E148">
+        <v>5.2094000000000001E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149">
         <v>5.6984E-2</v>
       </c>
@@ -5919,8 +3608,11 @@
       <c r="D149">
         <v>0.122242</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E149">
+        <v>5.4386999999999998E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150">
         <v>5.7327000000000003E-2</v>
       </c>
@@ -5933,8 +3625,11 @@
       <c r="D150">
         <v>0.13275899999999999</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E150">
+        <v>5.2998000000000003E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151">
         <v>6.3515000000000002E-2</v>
       </c>
@@ -5947,8 +3642,11 @@
       <c r="D151">
         <v>0.134769</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E151">
+        <v>5.5516999999999997E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152">
         <v>7.2968000000000005E-2</v>
       </c>
@@ -5961,8 +3659,11 @@
       <c r="D152">
         <v>0.13569300000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E152">
+        <v>5.3664000000000003E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153">
         <v>6.4293000000000003E-2</v>
       </c>
@@ -5975,8 +3676,11 @@
       <c r="D153">
         <v>0.126114</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E153">
+        <v>5.2083999999999998E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154">
         <v>6.3835000000000003E-2</v>
       </c>
@@ -5989,8 +3693,11 @@
       <c r="D154">
         <v>0.122921</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E154">
+        <v>4.9479000000000002E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155">
         <v>6.4177999999999999E-2</v>
       </c>
@@ -6003,8 +3710,11 @@
       <c r="D155">
         <v>0.12525900000000001</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E155">
+        <v>4.9190999999999999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156">
         <v>6.0539000000000003E-2</v>
       </c>
@@ -6017,8 +3727,11 @@
       <c r="D156">
         <v>0.121696</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E156">
+        <v>4.8724999999999997E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157">
         <v>6.0325999999999998E-2</v>
       </c>
@@ -6031,8 +3744,11 @@
       <c r="D157">
         <v>0.11924</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E157">
+        <v>4.9248E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158">
         <v>5.9914000000000002E-2</v>
       </c>
@@ -6045,8 +3761,11 @@
       <c r="D158">
         <v>0.12879199999999999</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E158">
+        <v>5.3377000000000001E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159">
         <v>5.9722999999999998E-2</v>
       </c>
@@ -6059,8 +3778,11 @@
       <c r="D159">
         <v>0.18634000000000001</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E159">
+        <v>5.1256000000000003E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160">
         <v>5.8235000000000002E-2</v>
       </c>
@@ -6073,8 +3795,11 @@
       <c r="D160">
         <v>0.13319400000000001</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E160">
+        <v>4.9793999999999998E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161">
         <v>6.2836000000000003E-2</v>
       </c>
@@ -6087,8 +3812,11 @@
       <c r="D161">
         <v>0.12822700000000001</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E161">
+        <v>5.4155000000000002E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162">
         <v>5.7999000000000002E-2</v>
       </c>
@@ -6101,8 +3829,11 @@
       <c r="D162">
         <v>0.12629299999999999</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E162">
+        <v>5.9934000000000001E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163">
         <v>5.8654999999999999E-2</v>
       </c>
@@ -6115,8 +3846,11 @@
       <c r="D163">
         <v>0.12420299999999999</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E163">
+        <v>6.3099000000000002E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164">
         <v>5.7952999999999998E-2</v>
       </c>
@@ -6129,8 +3863,11 @@
       <c r="D164">
         <v>0.123047</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E164">
+        <v>5.5023000000000002E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165">
         <v>5.7197999999999999E-2</v>
       </c>
@@ -6143,8 +3880,11 @@
       <c r="D165">
         <v>0.12157800000000001</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E165">
+        <v>6.3972000000000001E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166">
         <v>5.8075000000000002E-2</v>
       </c>
@@ -6157,8 +3897,11 @@
       <c r="D166">
         <v>0.135662</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E166">
+        <v>6.3307000000000002E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167">
         <v>5.8014000000000003E-2</v>
       </c>
@@ -6171,8 +3914,11 @@
       <c r="D167">
         <v>0.13294600000000001</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E167">
+        <v>5.2080000000000001E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168">
         <v>6.7046999999999995E-2</v>
       </c>
@@ -6185,8 +3931,11 @@
       <c r="D168">
         <v>0.13472000000000001</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E168">
+        <v>4.9999000000000002E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169">
         <v>6.5619999999999998E-2</v>
       </c>
@@ -6199,8 +3948,11 @@
       <c r="D169">
         <v>0.12901699999999999</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E169">
+        <v>4.9111000000000002E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170">
         <v>6.0738E-2</v>
       </c>
@@ -6213,8 +3965,11 @@
       <c r="D170">
         <v>0.124706</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E170">
+        <v>5.0008999999999998E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171">
         <v>6.4804E-2</v>
       </c>
@@ -6227,8 +3982,11 @@
       <c r="D171">
         <v>0.124489</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E171">
+        <v>4.9345E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172">
         <v>6.3515000000000002E-2</v>
       </c>
@@ -6241,8 +3999,11 @@
       <c r="D172">
         <v>0.121056</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E172">
+        <v>4.7613000000000003E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173">
         <v>6.2461999999999997E-2</v>
       </c>
@@ -6255,8 +4016,11 @@
       <c r="D173">
         <v>0.121174</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E173">
+        <v>4.7777E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174">
         <v>6.1553999999999998E-2</v>
       </c>
@@ -6269,8 +4033,11 @@
       <c r="D174">
         <v>0.12685399999999999</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E174">
+        <v>4.9665000000000001E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175">
         <v>6.0684000000000002E-2</v>
       </c>
@@ -6283,8 +4050,11 @@
       <c r="D175">
         <v>0.13331200000000001</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E175">
+        <v>4.6124999999999999E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176">
         <v>6.0241999999999997E-2</v>
       </c>
@@ -6297,8 +4067,11 @@
       <c r="D176">
         <v>0.13402600000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E176">
+        <v>4.7384000000000003E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177">
         <v>6.0226000000000002E-2</v>
       </c>
@@ -6311,8 +4084,11 @@
       <c r="D177">
         <v>0.12757499999999999</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E177">
+        <v>4.8613000000000003E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178">
         <v>5.8243000000000003E-2</v>
       </c>
@@ -6325,8 +4101,11 @@
       <c r="D178">
         <v>0.124447</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E178">
+        <v>4.9222000000000002E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179">
         <v>5.7785000000000003E-2</v>
       </c>
@@ -6339,8 +4118,11 @@
       <c r="D179">
         <v>0.12314600000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E179">
+        <v>5.1819999999999998E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180">
         <v>5.8181999999999998E-2</v>
       </c>
@@ -6353,8 +4135,11 @@
       <c r="D180">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E180">
+        <v>4.9914E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181">
         <v>6.2240999999999998E-2</v>
       </c>
@@ -6367,8 +4152,11 @@
       <c r="D181">
         <v>0.123016</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E181">
+        <v>5.2616000000000003E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182">
         <v>5.7098000000000003E-2</v>
       </c>
@@ -6381,8 +4169,11 @@
       <c r="D182">
         <v>0.124172</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E182">
+        <v>5.4727999999999999E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183">
         <v>5.7029999999999997E-2</v>
       </c>
@@ -6395,8 +4186,11 @@
       <c r="D183">
         <v>0.12939500000000001</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E183">
+        <v>6.1305999999999999E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184">
         <v>5.8326999999999997E-2</v>
       </c>
@@ -6409,8 +4203,11 @@
       <c r="D184">
         <v>0.136738</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E184">
+        <v>6.1282000000000003E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185">
         <v>6.2302000000000003E-2</v>
       </c>
@@ -6423,8 +4220,11 @@
       <c r="D185">
         <v>0.13241600000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E185">
+        <v>5.2130999999999997E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186">
         <v>6.2378000000000003E-2</v>
       </c>
@@ -6437,8 +4237,11 @@
       <c r="D186">
         <v>0.12833800000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E186">
+        <v>5.2417999999999999E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187">
         <v>5.9166000000000003E-2</v>
       </c>
@@ -6451,8 +4254,11 @@
       <c r="D187">
         <v>0.124405</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E187">
+        <v>5.1248000000000002E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188">
         <v>7.6797000000000004E-2</v>
       </c>
@@ -6465,8 +4271,11 @@
       <c r="D188">
         <v>0.123512</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E188">
+        <v>5.4276999999999999E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189">
         <v>6.9198999999999997E-2</v>
       </c>
@@ -6479,8 +4288,11 @@
       <c r="D189">
         <v>0.121487</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E189">
+        <v>5.3407999999999997E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190">
         <v>6.3704999999999998E-2</v>
       </c>
@@ -6493,8 +4305,11 @@
       <c r="D190">
         <v>0.121243</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E190">
+        <v>5.0049999999999997E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191">
         <v>6.1607000000000002E-2</v>
       </c>
@@ -6507,8 +4322,11 @@
       <c r="D191">
         <v>0.122391</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E191">
+        <v>4.7356000000000002E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192">
         <v>6.2468999999999997E-2</v>
       </c>
@@ -6521,8 +4339,11 @@
       <c r="D192">
         <v>0.12871199999999999</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E192">
+        <v>4.5197000000000001E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193">
         <v>6.0172999999999997E-2</v>
       </c>
@@ -6535,8 +4356,11 @@
       <c r="D193">
         <v>0.13578000000000001</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E193">
+        <v>4.6761999999999998E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194">
         <v>5.9853000000000003E-2</v>
       </c>
@@ -6549,8 +4373,11 @@
       <c r="D194">
         <v>0.12887599999999999</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E194">
+        <v>8.5903999999999994E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195">
         <v>5.9631000000000003E-2</v>
       </c>
@@ -6563,8 +4390,11 @@
       <c r="D195">
         <v>0.124279</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E195">
+        <v>4.8057000000000002E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196">
         <v>5.9180999999999997E-2</v>
       </c>
@@ -6577,8 +4407,11 @@
       <c r="D196">
         <v>0.121799</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E196">
+        <v>4.7787000000000003E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197">
         <v>6.1942999999999998E-2</v>
       </c>
@@ -6591,8 +4424,11 @@
       <c r="D197">
         <v>0.12188</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E197">
+        <v>5.2322E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198">
         <v>5.9340999999999998E-2</v>
       </c>
@@ -6605,8 +4441,11 @@
       <c r="D198">
         <v>0.124275</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E198">
+        <v>4.7799000000000001E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199">
         <v>6.6734000000000002E-2</v>
       </c>
@@ -6619,8 +4458,11 @@
       <c r="D199">
         <v>0.12931100000000001</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E199">
+        <v>4.8396000000000002E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200">
         <v>6.9838999999999998E-2</v>
       </c>
@@ -6633,8 +4475,11 @@
       <c r="D200">
         <v>0.130074</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E200">
+        <v>4.8016000000000003E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201">
         <v>6.7863000000000007E-2</v>
       </c>
@@ -6647,8 +4492,11 @@
       <c r="D201">
         <v>0.128445</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E201">
+        <v>5.2725000000000001E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A202">
         <v>6.0509E-2</v>
       </c>
@@ -6661,8 +4509,11 @@
       <c r="D202">
         <v>0.13039799999999999</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E202">
+        <v>4.8644E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A203">
         <v>6.4583000000000002E-2</v>
       </c>
@@ -6675,8 +4526,11 @@
       <c r="D203">
         <v>0.126724</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E203">
+        <v>4.8066999999999999E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A204">
         <v>7.3974999999999999E-2</v>
       </c>
@@ -6689,8 +4543,11 @@
       <c r="D204">
         <v>0.123344</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E204">
+        <v>4.8159E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A205">
         <v>7.0152000000000006E-2</v>
       </c>
@@ -6703,8 +4560,11 @@
       <c r="D205">
         <v>0.12120400000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E205">
+        <v>4.6927000000000003E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A206">
         <v>6.3728000000000007E-2</v>
       </c>
@@ -6717,8 +4577,11 @@
       <c r="D206">
         <v>0.121418</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E206">
+        <v>6.1695E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A207">
         <v>6.3231999999999997E-2</v>
       </c>
@@ -6731,8 +4594,11 @@
       <c r="D207">
         <v>0.12176099999999999</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E207">
+        <v>7.2848999999999997E-2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A208">
         <v>7.8865000000000005E-2</v>
       </c>
@@ -6745,8 +4611,11 @@
       <c r="D208">
         <v>0.121113</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E208">
+        <v>6.2080000000000003E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A209">
         <v>7.1762000000000006E-2</v>
       </c>
@@ -6759,8 +4628,11 @@
       <c r="D209">
         <v>0.12402299999999999</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E209">
+        <v>5.6723999999999997E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A210">
         <v>7.2059999999999999E-2</v>
       </c>
@@ -6773,8 +4645,11 @@
       <c r="D210">
         <v>0.13306799999999999</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E210">
+        <v>5.4996999999999997E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A211">
         <v>7.1601999999999999E-2</v>
       </c>
@@ -6787,8 +4662,11 @@
       <c r="D211">
         <v>0.12665899999999999</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E211">
+        <v>5.6370000000000003E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A212">
         <v>7.4005000000000001E-2</v>
       </c>
@@ -6801,8 +4679,11 @@
       <c r="D212">
         <v>0.124931</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E212">
+        <v>4.8341000000000002E-2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A213">
         <v>7.0571999999999996E-2</v>
       </c>
@@ -6815,8 +4696,11 @@
       <c r="D213">
         <v>0.12207</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E213">
+        <v>4.8569000000000001E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A214">
         <v>0.122818</v>
       </c>
@@ -6829,8 +4713,11 @@
       <c r="D214">
         <v>0.124531</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E214">
+        <v>4.7560999999999999E-2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A215">
         <v>7.6522999999999994E-2</v>
       </c>
@@ -6843,8 +4730,11 @@
       <c r="D215">
         <v>0.130386</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E215">
+        <v>5.1402999999999997E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A216">
         <v>8.1947000000000006E-2</v>
       </c>
@@ -6857,8 +4747,11 @@
       <c r="D216">
         <v>0.12656800000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E216">
+        <v>5.5197999999999997E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A217">
         <v>8.1039E-2</v>
       </c>
@@ -6871,8 +4764,11 @@
       <c r="D217">
         <v>0.126133</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E217">
+        <v>4.7738999999999997E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A218">
         <v>7.6331999999999997E-2</v>
       </c>
@@ -6885,8 +4781,11 @@
       <c r="D218">
         <v>0.128387</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E218">
+        <v>4.8666000000000001E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A219">
         <v>8.3091999999999999E-2</v>
       </c>
@@ -6899,8 +4798,11 @@
       <c r="D219">
         <v>0.131519</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E219">
+        <v>4.8922E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A220">
         <v>8.8234000000000007E-2</v>
       </c>
@@ -6913,8 +4815,11 @@
       <c r="D220">
         <v>0.130241</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E220">
+        <v>5.0262000000000001E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A221">
         <v>8.9066000000000006E-2</v>
       </c>
@@ -6927,8 +4832,11 @@
       <c r="D221">
         <v>0.12606800000000001</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E221">
+        <v>5.1166999999999997E-2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A222">
         <v>7.8186000000000005E-2</v>
       </c>
@@ -6941,8 +4849,11 @@
       <c r="D222">
         <v>0.125004</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E222">
+        <v>5.0132000000000003E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A223">
         <v>7.4936000000000003E-2</v>
       </c>
@@ -6955,8 +4866,11 @@
       <c r="D223">
         <v>0.131554</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E223">
+        <v>4.9741E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A224">
         <v>6.5475000000000005E-2</v>
       </c>
@@ -6969,8 +4883,11 @@
       <c r="D224">
         <v>0.121029</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E224">
+        <v>4.7215E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A225">
         <v>6.4415E-2</v>
       </c>
@@ -6983,8 +4900,11 @@
       <c r="D225">
         <v>0.121281</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E225">
+        <v>4.8959000000000003E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A226">
         <v>6.2415999999999999E-2</v>
       </c>
@@ -6997,8 +4917,11 @@
       <c r="D226">
         <v>0.12196</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E226">
+        <v>5.0782000000000001E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A227">
         <v>6.1423999999999999E-2</v>
       </c>
@@ -7011,8 +4934,11 @@
       <c r="D227">
         <v>0.13230900000000001</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E227">
+        <v>5.4608999999999998E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A228">
         <v>6.0684000000000002E-2</v>
       </c>
@@ -7025,8 +4951,11 @@
       <c r="D228">
         <v>0.12875400000000001</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E228">
+        <v>5.4708E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A229">
         <v>5.8929000000000002E-2</v>
       </c>
@@ -7039,8 +4968,11 @@
       <c r="D229">
         <v>0.124626</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E229">
+        <v>5.3617999999999999E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A230">
         <v>5.9532000000000002E-2</v>
       </c>
@@ -7053,8 +4985,11 @@
       <c r="D230">
         <v>0.12535499999999999</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E230">
+        <v>5.1857E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A231">
         <v>6.2439000000000001E-2</v>
       </c>
@@ -7067,8 +5002,11 @@
       <c r="D231">
         <v>0.12484000000000001</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E231">
+        <v>5.3948000000000003E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A232">
         <v>5.9333999999999998E-2</v>
       </c>
@@ -7081,8 +5019,11 @@
       <c r="D232">
         <v>0.12776599999999999</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E232">
+        <v>5.5601999999999999E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A233">
         <v>6.0356E-2</v>
       </c>
@@ -7095,8 +5036,11 @@
       <c r="D233">
         <v>0.13291500000000001</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E233">
+        <v>5.3552000000000002E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A234">
         <v>6.1645999999999999E-2</v>
       </c>
@@ -7109,8 +5053,11 @@
       <c r="D234">
         <v>0.123611</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E234">
+        <v>5.3067000000000003E-2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A235">
         <v>6.7085000000000006E-2</v>
       </c>
@@ -7123,8 +5070,11 @@
       <c r="D235">
         <v>0.12637699999999999</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E235">
+        <v>6.1171000000000003E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A236">
         <v>7.2707999999999995E-2</v>
       </c>
@@ -7137,8 +5087,11 @@
       <c r="D236">
         <v>0.131386</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E236">
+        <v>5.1373000000000002E-2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A237">
         <v>6.2035E-2</v>
       </c>
@@ -7151,8 +5104,11 @@
       <c r="D237">
         <v>0.13802700000000001</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E237">
+        <v>5.1021999999999998E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A238">
         <v>6.3773999999999997E-2</v>
       </c>
@@ -7165,8 +5121,11 @@
       <c r="D238">
         <v>0.13794300000000001</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E238">
+        <v>5.2322E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A239">
         <v>6.2805E-2</v>
       </c>
@@ -7179,8 +5138,11 @@
       <c r="D239">
         <v>0.13553200000000001</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E239">
+        <v>5.6786000000000003E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A240">
         <v>6.1592000000000001E-2</v>
       </c>
@@ -7193,8 +5155,11 @@
       <c r="D240">
         <v>0.12664</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E240">
+        <v>5.2968000000000001E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A241">
         <v>6.1408999999999998E-2</v>
       </c>
@@ -7207,8 +5172,11 @@
       <c r="D241">
         <v>0.125252</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E241">
+        <v>5.1076999999999997E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A242">
         <v>6.0684000000000002E-2</v>
       </c>
@@ -7221,8 +5189,11 @@
       <c r="D242">
         <v>0.123848</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E242">
+        <v>4.8590000000000001E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A243">
         <v>5.9082000000000003E-2</v>
       </c>
@@ -7235,8 +5206,11 @@
       <c r="D243">
         <v>0.12992899999999999</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E243">
+        <v>5.0980999999999999E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A244">
         <v>5.9158000000000002E-2</v>
       </c>
@@ -7249,8 +5223,11 @@
       <c r="D244">
         <v>0.13480400000000001</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E244">
+        <v>4.7816999999999998E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A245">
         <v>5.8144000000000001E-2</v>
       </c>
@@ -7263,8 +5240,11 @@
       <c r="D245">
         <v>0.12645000000000001</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E245">
+        <v>4.6949999999999999E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A246">
         <v>5.7838000000000001E-2</v>
       </c>
@@ -7277,8 +5257,11 @@
       <c r="D246">
         <v>0.125443</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E246">
+        <v>4.8571999999999997E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A247">
         <v>5.8646999999999998E-2</v>
       </c>
@@ -7291,8 +5274,11 @@
       <c r="D247">
         <v>0.12546499999999999</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E247">
+        <v>5.7160000000000002E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A248">
         <v>5.9624000000000003E-2</v>
       </c>
@@ -7305,8 +5291,11 @@
       <c r="D248">
         <v>0.124832</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E248">
+        <v>5.1022999999999999E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A249">
         <v>6.1698999999999997E-2</v>
       </c>
@@ -7319,8 +5308,11 @@
       <c r="D249">
         <v>0.124016</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E249">
+        <v>5.3206999999999997E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A250">
         <v>6.0745E-2</v>
       </c>
@@ -7333,8 +5325,11 @@
       <c r="D250">
         <v>0.124573</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E250">
+        <v>5.5037000000000003E-2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A251">
         <v>5.8120999999999999E-2</v>
       </c>
@@ -7347,8 +5342,11 @@
       <c r="D251">
         <v>0.12515999999999999</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E251">
+        <v>6.1083999999999999E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A252">
         <v>5.8410999999999998E-2</v>
       </c>
@@ -7361,8 +5359,11 @@
       <c r="D252">
         <v>0.138374</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E252">
+        <v>5.6903000000000002E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A253">
         <v>6.0211000000000001E-2</v>
       </c>
@@ -7375,8 +5376,11 @@
       <c r="D253">
         <v>0.137993</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E253">
+        <v>5.8767E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A254">
         <v>6.5078999999999998E-2</v>
       </c>
@@ -7389,8 +5393,11 @@
       <c r="D254">
         <v>0.1343</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E254">
+        <v>6.0082000000000003E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A255">
         <v>6.6193000000000002E-2</v>
       </c>
@@ -7403,8 +5410,11 @@
       <c r="D255">
         <v>0.12679299999999999</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E255">
+        <v>5.0369999999999998E-2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A256">
         <v>6.5903000000000003E-2</v>
       </c>
@@ -7417,8 +5427,11 @@
       <c r="D256">
         <v>0.124123</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E256">
+        <v>5.6965000000000002E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A257">
         <v>6.1363000000000001E-2</v>
       </c>
@@ -7430,11 +5443,13 @@
       </c>
       <c r="D257">
         <v>0.121216</v>
+      </c>
+      <c r="E257">
+        <v>5.0511E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>